--- a/IrbAnalyser/test1.xlsx
+++ b/IrbAnalyser/test1.xlsx
@@ -21,7 +21,7 @@
     <t>List of studies to create in Velos</t>
   </si>
   <si>
-    <t>Date : 4/6/2015</t>
+    <t>Date : 4/7/2015</t>
   </si>
   <si>
     <t>IRBNumber</t>

--- a/IrbAnalyser/test1.xlsx
+++ b/IrbAnalyser/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="18195" windowHeight="9780"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="17175"/>
   </bookViews>
   <sheets>
     <sheet name="New studies" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>List of studies to create in Velos</t>
   </si>
   <si>
-    <t>Date : 4/7/2015</t>
-  </si>
-  <si>
-    <t>IRBNumber</t>
-  </si>
-  <si>
-    <t>StudyNumber</t>
-  </si>
-  <si>
-    <t>12345-BRANY_CALENDAR_Sylvain</t>
+    <t>Date : 4/8/2015</t>
+  </si>
+  <si>
+    <t>IRB Agency name</t>
+  </si>
+  <si>
+    <t>IRB no</t>
+  </si>
+  <si>
+    <t>Regulatory coordinator</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
+  </si>
+  <si>
+    <t>Study number</t>
+  </si>
+  <si>
+    <t>Official title</t>
+  </si>
+  <si>
+    <t>Study summary</t>
+  </si>
+  <si>
+    <t>IND/IDE Information available</t>
+  </si>
+  <si>
+    <t>IND/IDE Number</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>IND/IDE Grantor*</t>
+  </si>
+  <si>
+    <t>IND/IDE Holder Type*</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Division/Therapeutic area</t>
+  </si>
+  <si>
+    <t>Entire study sample size</t>
+  </si>
+  <si>
+    <t>Study duration</t>
+  </si>
+  <si>
+    <t>Estimated Begin date</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Research scope</t>
+  </si>
+  <si>
+    <t>Primary funding sponsor, if other :</t>
+  </si>
+  <si>
+    <t>Sponsor contact</t>
+  </si>
+  <si>
+    <t>Sponsor Protocol ID</t>
+  </si>
+  <si>
+    <t>Version date</t>
+  </si>
+  <si>
+    <t>Version number</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Version status, Work in progress, approved, archived</t>
+  </si>
+  <si>
+    <t>Short description</t>
   </si>
 </sst>
 </file>
@@ -102,10 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -408,39 +485,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>123457</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/IrbAnalyser/test1.xlsx
+++ b/IrbAnalyser/test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="17175"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="16410"/>
   </bookViews>
   <sheets>
     <sheet name="New studies" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>List of studies to create in Velos</t>
   </si>
   <si>
-    <t>Date : 4/8/2015</t>
+    <t>Date : 4/9/2015</t>
+  </si>
+  <si>
+    <t>TYPE</t>
   </si>
   <si>
     <t>IRB Agency name</t>
@@ -109,6 +112,36 @@
   </si>
   <si>
     <t>Short description</t>
+  </si>
+  <si>
+    <t>Modified study</t>
+  </si>
+  <si>
+    <t>BRANY</t>
+  </si>
+  <si>
+    <t>A study</t>
+  </si>
+  <si>
+    <t>A study about bla bla bla</t>
+  </si>
+  <si>
+    <t>Multicenter</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>Roger Walter : ads@sad.dd</t>
+  </si>
+  <si>
+    <t>BRANY documents</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -139,12 +172,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -180,10 +219,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,167 +528,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="AD2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12345</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="2">
+        <v>546654</v>
+      </c>
+      <c r="X3" s="3">
+        <v>42103.731400462966</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="4">
+        <v>546654</v>
+      </c>
+      <c r="X4" s="5">
+        <v>42103.731400462966</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
